--- a/data/chap.xlsx
+++ b/data/chap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="add_chap" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,14 @@
   </si>
   <si>
     <t>chap -a del -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,68 +898,87 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="3" max="3" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -959,46 +986,64 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1010,71 +1055,93 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>57</v>
       </c>
       <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1086,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1098,75 +1165,102 @@
     <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>65</v>
       </c>
       <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
